--- a/test/LC75.xlsx
+++ b/test/LC75.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diro1\Desktop\DKA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diro1\Documents\GitHub\lc\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6B66F0-3137-4218-894E-B1A5A48D399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE9087-DB9D-412B-97CD-BAB65137E22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="15660" windowHeight="10290" xr2:uid="{A35CA0F2-F031-4E51-B3C9-32F2C14559BA}"/>
+    <workbookView xWindow="16950" yWindow="3270" windowWidth="15630" windowHeight="10290" activeTab="1" xr2:uid="{A35CA0F2-F031-4E51-B3C9-32F2C14559BA}"/>
   </bookViews>
   <sheets>
     <sheet name="LC75" sheetId="1" r:id="rId1"/>
+    <sheet name="FB" sheetId="3" r:id="rId2"/>
+    <sheet name="FB_lc" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FB!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="426">
   <si>
     <t>Video Solution</t>
   </si>
@@ -989,6 +993,330 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Arrays/String</t>
+  </si>
+  <si>
+    <t>LongestSubstring without repeat</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>Unique Email Addresses</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Backtracking: Perm</t>
+  </si>
+  <si>
+    <t>Longest Substring w/o repeating characters</t>
+  </si>
+  <si>
+    <t>DP: Coin Change</t>
+  </si>
+  <si>
+    <t>Container with most water</t>
+  </si>
+  <si>
+    <t>BT: word search</t>
+  </si>
+  <si>
+    <t>BT: Subsets</t>
+  </si>
+  <si>
+    <t>BT: Perm II</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>Subarray sum equals k</t>
+  </si>
+  <si>
+    <t>Reorder Routes to make all paths lead to the city</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Minmum Number of Swaps to Make String</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>minmum number of flips to make bin str alt</t>
+  </si>
+  <si>
+    <t>swap nodes in pairs</t>
+  </si>
+  <si>
+    <t>partition equal subset sum</t>
+  </si>
+  <si>
+    <t>graph valid tree</t>
+  </si>
+  <si>
+    <t>maximum alt sub sum</t>
+  </si>
+  <si>
+    <t>freq of the most freq element</t>
+  </si>
+  <si>
+    <t>combo sum IV</t>
+  </si>
+  <si>
+    <t>daily tempatures - monotic stack</t>
+  </si>
+  <si>
+    <t>unique length-3 palindromic subseq</t>
+  </si>
+  <si>
+    <t>array with elements not equal to ave of neighbor</t>
+  </si>
+  <si>
+    <t>sort colors - quicksort partition</t>
+  </si>
+  <si>
+    <t>missing number</t>
+  </si>
+  <si>
+    <t>encode and decode strings</t>
+  </si>
+  <si>
+    <t>max number of removable char</t>
+  </si>
+  <si>
+    <t>coin change 2 - DP unbounded knapsack</t>
+  </si>
+  <si>
+    <t>count sub islands - dfs</t>
+  </si>
+  <si>
+    <t>rotate list</t>
+  </si>
+  <si>
+    <t>linked list</t>
+  </si>
+  <si>
+    <t>K closest points to origin</t>
+  </si>
+  <si>
+    <t>heap/priority queque</t>
+  </si>
+  <si>
+    <t>eliminate max number of monsters</t>
+  </si>
+  <si>
+    <t>binary tree right side view</t>
+  </si>
+  <si>
+    <t>gas station</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>check if move is legal</t>
+  </si>
+  <si>
+    <t>find unique binary string</t>
+  </si>
+  <si>
+    <t>find the kth largest int  in the array</t>
+  </si>
+  <si>
+    <t>surrounded regions</t>
+  </si>
+  <si>
+    <t>min cost to connect all points - min spanning tree</t>
+  </si>
+  <si>
+    <t>max product of the length of two palindrom subseq</t>
+  </si>
+  <si>
+    <t>combinations</t>
+  </si>
+  <si>
+    <t>operations on tree</t>
+  </si>
+  <si>
+    <t>min diff between highest and lowest of k scores</t>
+  </si>
+  <si>
+    <t>num of pairs of interchangeable rectangle</t>
+  </si>
+  <si>
+    <t>merge triplets to form target triplet</t>
+  </si>
+  <si>
+    <t>Flatten binary tree to linked list</t>
+  </si>
+  <si>
+    <t>seat reservation manager</t>
+  </si>
+  <si>
+    <t>detect squares</t>
+  </si>
+  <si>
+    <t>grid game</t>
+  </si>
+  <si>
+    <t>find missing observations</t>
+  </si>
+  <si>
+    <t>restore ip addresses</t>
+  </si>
+  <si>
+    <t>target sum</t>
+  </si>
+  <si>
+    <t>partition labels</t>
+  </si>
+  <si>
+    <t>max area of island</t>
+  </si>
+  <si>
+    <t>subsets II</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>snakes and ladders</t>
+  </si>
+  <si>
+    <t>open the lock</t>
+  </si>
+  <si>
+    <t>valid parenthesis string</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>fist missing positive</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Number of Ways to Rearrange Sticks with Sticks Visible</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>meeting rooms  (lintcode)</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>*Valid Prentheses-Stack</t>
+  </si>
+  <si>
+    <t>island perimeter</t>
+  </si>
+  <si>
+    <t>Word Search II - BT</t>
+  </si>
+  <si>
+    <t>merge k sorted lists</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>convert sorted array to binary search tree</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>dp/trees</t>
+  </si>
+  <si>
+    <t>sum root to leaf numbers</t>
+  </si>
+  <si>
+    <t>*Two Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Queens </t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>palindrome number</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438B5499-A29C-441B-8333-3EF79267C1D1}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -32914,4 +33242,1444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId153"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C67978F-E53F-4159-801E-10EEF4CF8B1F}">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>617</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>929</v>
+      </c>
+      <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>977</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>253</v>
+      </c>
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>560</v>
+      </c>
+      <c r="C23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1466</v>
+      </c>
+      <c r="C24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1888</v>
+      </c>
+      <c r="C29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>416</v>
+      </c>
+      <c r="C31" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>261</v>
+      </c>
+      <c r="C32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1911</v>
+      </c>
+      <c r="C33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>252</v>
+      </c>
+      <c r="C34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1838</v>
+      </c>
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>377</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>739</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1930</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1968</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>268</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1898</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>518</v>
+      </c>
+      <c r="C44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1905</v>
+      </c>
+      <c r="C45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>973</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" t="s">
+        <v>373</v>
+      </c>
+      <c r="E47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1921</v>
+      </c>
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1958</v>
+      </c>
+      <c r="C51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1980</v>
+      </c>
+      <c r="C52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1985</v>
+      </c>
+      <c r="C53" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" t="s">
+        <v>345</v>
+      </c>
+      <c r="E54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1584</v>
+      </c>
+      <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2002</v>
+      </c>
+      <c r="C56" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1984</v>
+      </c>
+      <c r="C59" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5868</v>
+      </c>
+      <c r="C60" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1899</v>
+      </c>
+      <c r="C61" t="s">
+        <v>388</v>
+      </c>
+      <c r="D61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1845</v>
+      </c>
+      <c r="C63" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5877</v>
+      </c>
+      <c r="C64" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5882</v>
+      </c>
+      <c r="C65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5891</v>
+      </c>
+      <c r="C66" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>394</v>
+      </c>
+      <c r="E67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>494</v>
+      </c>
+      <c r="C68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" t="s">
+        <v>353</v>
+      </c>
+      <c r="E68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>763</v>
+      </c>
+      <c r="C69" t="s">
+        <v>396</v>
+      </c>
+      <c r="E69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>695</v>
+      </c>
+      <c r="C70" t="s">
+        <v>397</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>909</v>
+      </c>
+      <c r="C72" t="s">
+        <v>400</v>
+      </c>
+      <c r="D72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>752</v>
+      </c>
+      <c r="C73" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>678</v>
+      </c>
+      <c r="C74" t="s">
+        <v>402</v>
+      </c>
+      <c r="E74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>405</v>
+      </c>
+      <c r="E76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1866</v>
+      </c>
+      <c r="C77" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" t="s">
+        <v>406</v>
+      </c>
+      <c r="E77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>413</v>
+      </c>
+      <c r="D79" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>212</v>
+      </c>
+      <c r="C80" t="s">
+        <v>414</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>420</v>
+      </c>
+      <c r="D83" t="s">
+        <v>416</v>
+      </c>
+      <c r="E83" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5848</v>
+      </c>
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" t="s">
+        <v>423</v>
+      </c>
+      <c r="E86" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>953</v>
+      </c>
+      <c r="C87" t="s">
+        <v>424</v>
+      </c>
+      <c r="E87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{9C67978F-E53F-4159-801E-10EEF4CF8B1F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E88">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D2A29-ECB4-4965-AEDB-CE91323A93AE}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>